--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="591">
   <si>
     <t>key</t>
   </si>
@@ -44,10 +44,10 @@
     <t>version_dwc_stx_seq</t>
   </si>
   <si>
-    <t>Spatial Transcriptomics Sequencing [Darwin Core (DwC)]</t>
-  </si>
-  <si>
-    <t>TBC dwc_stx_seq</t>
+    <t>Spatial Transcriptomics Sequencing (ST-Seq) [Darwin Core (DwC)]</t>
+  </si>
+  <si>
+    <t>Spatial transcriptomics sequencing to map gene expression within tissue samples, following Darwin Core (DwC) standards for transmitting biodiversity data, to help analyse cellular interactions in a spatial context.</t>
   </si>
   <si>
     <t>dwc</t>
@@ -92,7 +92,7 @@
     <t>A detailed description of the project which includes research goals and experimental approach. Project description should be fewer than 300 words, such as an abstract from a grant application or publication.</t>
   </si>
   <si>
-    <t>e.g. This project explores the intricate details of single cells in the human body, focusing on their structure, function, and behavior. By studying individual cells, it aims to uncover how they contribute to overall health, disease progression, and human biology. This research can provide deeper insights into cellular processes, paving the way for advancements in medical treatments and personalised medicine.</t>
+    <t>e.g. This project explores the intricate details of single cells in the human body, focusing on their structure, function, and behaviour. By studying individual cells, it aims to uncover how they contribute to overall health, disease progression, and human biology. This research can provide deeper insights into cellular processes, paving the way for advancements in medical treatments and personalised medicine.</t>
   </si>
   <si>
     <t>A citation for the study resource, following a standard format.</t>
@@ -146,12 +146,18 @@
     <t>Spatial Transcriptomics</t>
   </si>
   <si>
+    <t>orcid_id</t>
+  </si>
+  <si>
     <t>givenName</t>
   </si>
   <si>
     <t>familyName</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
     <t>affiliation</t>
   </si>
   <si>
@@ -161,25 +167,43 @@
     <t>funding</t>
   </si>
   <si>
+    <t>orcid_id (optional)</t>
+  </si>
+  <si>
+    <t>email (optional)</t>
+  </si>
+  <si>
     <t>funder (optional)</t>
   </si>
   <si>
     <t>funding (optional)</t>
   </si>
   <si>
-    <t>The first name of a Person.</t>
+    <t>A 16-digit number that uniquely identify researchers.</t>
+  </si>
+  <si>
+    <t>e.g. 0000-1234-5678-9012</t>
+  </si>
+  <si>
+    <t>A first name (or given name) is the personal name given to an individual conducting the study.</t>
   </si>
   <si>
     <t>e.g. Jane</t>
   </si>
   <si>
-    <t>The last name of a Person.</t>
+    <t>A last name (or surname) is the family name passed down from one generation to the next for the individual conducting the study.</t>
   </si>
   <si>
     <t>e.g. Doe</t>
   </si>
   <si>
-    <t>An organization that this person is affiliated with. For example, a school/university, a club, or a team.</t>
+    <t>A unique identifier used to send and receive electronic messages (emails) over the internet.</t>
+  </si>
+  <si>
+    <t>e.g. jane.doe@example.com</t>
+  </si>
+  <si>
+    <t>An organisation or institution that this person is associated with.</t>
   </si>
   <si>
     <t>e.g. University of Liverpool</t>
@@ -191,7 +215,7 @@
     <t>e.g. BBSRC</t>
   </si>
   <si>
-    <t>A Grant that directly or indirectly provide funding or sponsorship for this item.</t>
+    <t>A grant that directly or indirectly provides funding or sponsorship for the person to conduct the study.</t>
   </si>
   <si>
     <t>e.g. GRAK3489</t>
@@ -752,7 +776,7 @@
     <t>The date on which the subject was determined as representing the dwc:Taxon.</t>
   </si>
   <si>
-    <t>e.g. 1963-03-08T14: 07-0600</t>
+    <t>e.g. 1963-03-08T14:07</t>
   </si>
   <si>
     <t>The current state of a specimen with respect to the collection identified in dwc:collectionCode or dwc:collectionID.</t>
@@ -1679,10 +1703,10 @@
     <t>e.g. 75</t>
   </si>
   <si>
+    <t>lib_prep_id</t>
+  </si>
+  <si>
     <t>file_id</t>
-  </si>
-  <si>
-    <t>lib_prep_id</t>
   </si>
   <si>
     <t>read_1_file</t>
@@ -1767,7 +1791,7 @@
     <t>e.g. file001</t>
   </si>
   <si>
-    <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, etc.</t>
+    <t>A file type is a name given to a specific kind of file. Common file types are fastq, gtf, fasta, bam, archive etc.</t>
   </si>
   <si>
     <t>e.g. fastq</t>
@@ -2162,8 +2186,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="187.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2210,7 +2234,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C4D8" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FAF6" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2313,7 +2337,7 @@
       <c r="G4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A302" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9E20" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:G4"/>
   </mergeCells>
@@ -2348,7 +2372,7 @@
   <sheetData>
     <row r="5" spans="5:6">
       <c r="E5" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
@@ -2356,7 +2380,7 @@
     </row>
     <row r="6" spans="5:6">
       <c r="E6" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -2364,7 +2388,7 @@
     </row>
     <row r="7" spans="5:6">
       <c r="E7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -2372,7 +2396,7 @@
     </row>
     <row r="8" spans="5:6">
       <c r="E8" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
@@ -2380,7 +2404,7 @@
     </row>
     <row r="9" spans="5:6">
       <c r="E9" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -2388,7 +2412,7 @@
     </row>
     <row r="10" spans="5:6">
       <c r="E10" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
@@ -2396,7 +2420,7 @@
     </row>
     <row r="11" spans="5:6">
       <c r="E11" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
@@ -2404,7 +2428,7 @@
     </row>
     <row r="12" spans="5:6">
       <c r="E12" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F12" t="s">
         <v>40</v>
@@ -2412,337 +2436,337 @@
     </row>
     <row r="13" spans="5:6">
       <c r="E13" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="5:6">
       <c r="E14" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15" spans="5:6">
       <c r="E15" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="16" spans="5:6">
       <c r="E16" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="5:5">
       <c r="E17" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="5:5">
       <c r="E18" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="5:5">
       <c r="E19" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="5:5">
       <c r="E20" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="5:5">
       <c r="E21" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="5:5">
       <c r="E22" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="5:5">
       <c r="E23" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="5:5">
       <c r="E24" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="5:5">
       <c r="E25" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="5:5">
       <c r="E26" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
     </row>
     <row r="27" spans="5:5">
       <c r="E27" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28" spans="5:5">
       <c r="E28" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="29" spans="5:5">
       <c r="E29" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="5:5">
       <c r="E30" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="5:5">
       <c r="E31" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="5:5">
       <c r="E32" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="34" spans="5:5">
       <c r="E34" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="5:5">
       <c r="E35" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="5:5">
       <c r="E36" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="37" spans="5:5">
       <c r="E37" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="5:5">
       <c r="E38" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="39" spans="5:5">
       <c r="E39" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="40" spans="5:5">
       <c r="E40" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="41" spans="5:5">
       <c r="E41" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="42" spans="5:5">
       <c r="E42" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="43" spans="5:5">
       <c r="E43" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="44" spans="5:5">
       <c r="E44" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45" spans="5:5">
       <c r="E45" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="46" spans="5:5">
       <c r="E46" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="47" spans="5:5">
       <c r="E47" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="48" spans="5:5">
       <c r="E48" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" spans="5:5">
       <c r="E49" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="5:5">
       <c r="E50" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
     </row>
     <row r="51" spans="5:5">
       <c r="E51" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="5:5">
       <c r="E52" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
     </row>
     <row r="53" spans="5:5">
       <c r="E53" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="5:5">
       <c r="E54" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="5:5">
       <c r="E55" t="s">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="56" spans="5:5">
       <c r="E56" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
     </row>
     <row r="57" spans="5:5">
       <c r="E57" t="s">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="5:5">
       <c r="E58" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="5:5">
       <c r="E59" t="s">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="60" spans="5:5">
       <c r="E60" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="61" spans="5:5">
       <c r="E61" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" spans="5:5">
       <c r="E62" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="5:5">
       <c r="E63" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="64" spans="5:5">
       <c r="E64" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" spans="5:5">
       <c r="E65" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
     <row r="66" spans="5:5">
       <c r="E66" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="67" spans="5:5">
       <c r="E67" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
     </row>
     <row r="68" spans="5:5">
       <c r="E68" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="69" spans="5:5">
       <c r="E69" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
     </row>
     <row r="70" spans="5:5">
       <c r="E70" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="71" spans="5:5">
       <c r="E71" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="5:5">
       <c r="E72" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="73" spans="5:5">
       <c r="E73" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
     </row>
     <row r="74" spans="5:5">
       <c r="E74" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="75" spans="5:5">
       <c r="E75" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="5:5">
       <c r="E76" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="5:5">
       <c r="E77" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="5:5">
       <c r="E78" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="79" spans="5:5">
       <c r="E79" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -2752,71 +2776,101 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="93.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="115.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="82.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="93.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="90.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>58</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>59</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
@@ -2824,13 +2878,16 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B402" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DFC5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A4:H4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:E4">
+  <conditionalFormatting sqref="A1:H4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -2927,453 +2984,453 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="BN1" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="BO1" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="BQ1" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="BV1" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:75">
       <c r="A2" s="5" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="AP2" s="5" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="AS2" s="5" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="AT2" s="5" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AU2" s="5" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="AV2" s="5" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="AW2" s="5" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="AX2" s="5" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="AY2" s="5" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="AZ2" s="5" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="BA2" s="5" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="BB2" s="5" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="BC2" s="5" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="BD2" s="5" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="BE2" s="5" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="BF2" s="5" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="BG2" s="5" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="BH2" s="5" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="BI2" s="5" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="BJ2" s="5" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="BK2" s="5" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="BL2" s="5" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="BM2" s="5" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="BN2" s="5" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="BO2" s="5" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="BP2" s="5" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="BQ2" s="5" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="BR2" s="5" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="BS2" s="5" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="BT2" s="5" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="BU2" s="5" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="BV2" s="5" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="BW2" s="5" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:75">
@@ -3381,226 +3438,226 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="AA3" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB3" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF3" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="AG3" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="AH3" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI3" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="AJ3" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="AK3" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="AL3" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AM3" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="AN3" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="AO3" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP3" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ3" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="AR3" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="AS3" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="AU3" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="AV3" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="AW3" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="AX3" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="AY3" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="AZ3" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="AB3" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="AC3" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ3" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="AK3" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="AL3" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="AM3" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="AN3" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="AQ3" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="AR3" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="AS3" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="AT3" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="AU3" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="AV3" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="AW3" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="AX3" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="AY3" s="5" t="s">
-        <v>303</v>
-      </c>
-      <c r="AZ3" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="BA3" s="5" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="BB3" s="5" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="BC3" s="5" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="BD3" s="5" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="BE3" s="5" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="BF3" s="5" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="BG3" s="5" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="BH3" s="5" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="BI3" s="5" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="BJ3" s="5" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="BK3" s="5" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="BL3" s="5" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="BM3" s="5" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="BN3" s="5" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="BO3" s="5" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="BP3" s="5" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="BQ3" s="5" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="BR3" s="5" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="BS3" s="5" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="BT3" s="5" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="BU3" s="5" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="BV3" s="5" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="BW3" s="5" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:75">
@@ -3683,7 +3740,7 @@
       <c r="BW4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CFA1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BD80" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:BW4"/>
   </mergeCells>
@@ -3750,76 +3807,76 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>443</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -3827,76 +3884,76 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -3904,76 +3961,76 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -4006,7 +4063,7 @@
       <c r="Y4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AC83" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DFD1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Y4"/>
   </mergeCells>
@@ -4070,43 +4127,43 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>518</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>528</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4114,43 +4171,43 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4158,43 +4215,43 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>551</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4216,7 +4273,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B828" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BF87" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4252,16 +4309,16 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="98.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="193.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="195.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="88.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -4269,40 +4326,40 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>553</v>
+        <v>516</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>508</v>
+        <v>561</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4310,40 +4367,40 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>564</v>
+        <v>469</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>461</v>
+        <v>537</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4351,40 +4408,40 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>530</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4405,7 +4462,7 @@
       <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9E2E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BB4B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:M4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
@@ -2234,7 +2234,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="FAF6" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="987B" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2337,7 +2337,7 @@
       <c r="G4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9E20" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="97E2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:G4"/>
   </mergeCells>
@@ -2883,7 +2883,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DFC5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DB8E" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3740,7 +3740,7 @@
       <c r="BW4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BD80" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F3F4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:BW4"/>
   </mergeCells>
@@ -4063,7 +4063,7 @@
       <c r="Y4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DFD1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CA34" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Y4"/>
   </mergeCells>
@@ -4273,7 +4273,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BF87" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9D63" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4462,7 +4462,7 @@
       <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BB4B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="961C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:M4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
@@ -2234,7 +2234,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="987B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B543" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2337,7 +2337,7 @@
       <c r="G4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="97E2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BE33" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:G4"/>
   </mergeCells>
@@ -2883,7 +2883,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="DB8E" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C35C" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3740,7 +3740,7 @@
       <c r="BW4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F3F4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="97A4" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:BW4"/>
   </mergeCells>
@@ -4063,7 +4063,7 @@
       <c r="Y4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CA34" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BEDE" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Y4"/>
   </mergeCells>
@@ -4273,7 +4273,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9D63" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A562" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4462,7 +4462,7 @@
       <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="961C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E1B0" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:M4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="590">
   <si>
     <t>key</t>
   </si>
@@ -47,7 +47,7 @@
     <t>Spatial Transcriptomics Sequencing (ST-Seq) [Darwin Core (DwC)]</t>
   </si>
   <si>
-    <t>Spatial transcriptomics sequencing to map gene expression within tissue samples, following Darwin Core (DwC) standards for transmitting biodiversity data, to help analyse cellular interactions in a spatial context.</t>
+    <t>Spatial transcriptomics sequencing to map gene expression within tissue samples, following Darwin Core (DwC) standards for biodiversity data.</t>
   </si>
   <si>
     <t>dwc</t>
@@ -227,9 +227,6 @@
     <t>scientificName</t>
   </si>
   <si>
-    <t>organism</t>
-  </si>
-  <si>
     <t>tissue</t>
   </si>
   <si>
@@ -446,9 +443,6 @@
     <t>scientificName (optional)</t>
   </si>
   <si>
-    <t>organism (optional)</t>
-  </si>
-  <si>
     <t>tissue (optional)</t>
   </si>
   <si>
@@ -1176,6 +1170,9 @@
   </si>
   <si>
     <t>Holdfast Fungi</t>
+  </si>
+  <si>
+    <t>Inflorescence</t>
   </si>
   <si>
     <t>Intestine</t>
@@ -2187,7 +2184,7 @@
   <cols>
     <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="187.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="127.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2234,7 +2231,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B543" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="DC39" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2337,7 +2334,7 @@
       <c r="G4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BE33" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="80F2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:G4"/>
   </mergeCells>
@@ -2360,413 +2357,418 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="E5:F79"/>
+  <dimension ref="D5:F80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="5:6">
-      <c r="E5" t="s">
-        <v>358</v>
+    <row r="5" spans="4:6">
+      <c r="D5" t="s">
+        <v>356</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="5:6">
-      <c r="E6" t="s">
-        <v>359</v>
+    <row r="6" spans="4:6">
+      <c r="D6" t="s">
+        <v>357</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="5:6">
-      <c r="E7" t="s">
-        <v>360</v>
+    <row r="7" spans="4:6">
+      <c r="D7" t="s">
+        <v>358</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="5:6">
-      <c r="E8" t="s">
-        <v>361</v>
+    <row r="8" spans="4:6">
+      <c r="D8" t="s">
+        <v>359</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="5:6">
-      <c r="E9" t="s">
-        <v>362</v>
+    <row r="9" spans="4:6">
+      <c r="D9" t="s">
+        <v>360</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="5:6">
-      <c r="E10" t="s">
-        <v>363</v>
+    <row r="10" spans="4:6">
+      <c r="D10" t="s">
+        <v>361</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="5:6">
-      <c r="E11" t="s">
-        <v>364</v>
+    <row r="11" spans="4:6">
+      <c r="D11" t="s">
+        <v>362</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="5:6">
-      <c r="E12" t="s">
-        <v>365</v>
+    <row r="12" spans="4:6">
+      <c r="D12" t="s">
+        <v>363</v>
       </c>
       <c r="F12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="5:6">
-      <c r="E13" t="s">
+    <row r="13" spans="4:6">
+      <c r="D13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="4:6">
+      <c r="D14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="4:6">
+      <c r="D15" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="14" spans="5:6">
-      <c r="E14" t="s">
+    <row r="16" spans="4:6">
+      <c r="D16" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="15" spans="5:6">
-      <c r="E15" t="s">
+    <row r="17" spans="4:4">
+      <c r="D17" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="16" spans="5:6">
-      <c r="E16" t="s">
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="17" spans="5:5">
-      <c r="E17" t="s">
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
-      <c r="E18" t="s">
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="19" spans="5:5">
-      <c r="E19" t="s">
+    <row r="21" spans="4:4">
+      <c r="D21" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="20" spans="5:5">
-      <c r="E20" t="s">
+    <row r="22" spans="4:4">
+      <c r="D22" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="5:5">
-      <c r="E21" t="s">
+    <row r="23" spans="4:4">
+      <c r="D23" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="5:5">
-      <c r="E22" t="s">
+    <row r="24" spans="4:4">
+      <c r="D24" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="23" spans="5:5">
-      <c r="E23" t="s">
+    <row r="25" spans="4:4">
+      <c r="D25" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="24" spans="5:5">
-      <c r="E24" t="s">
+    <row r="26" spans="4:4">
+      <c r="D26" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="25" spans="5:5">
-      <c r="E25" t="s">
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="26" spans="5:5">
-      <c r="E26" t="s">
+    <row r="28" spans="4:4">
+      <c r="D28" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="27" spans="5:5">
-      <c r="E27" t="s">
+    <row r="29" spans="4:4">
+      <c r="D29" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="5:5">
-      <c r="E28" t="s">
+    <row r="30" spans="4:4">
+      <c r="D30" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="29" spans="5:5">
-      <c r="E29" t="s">
+    <row r="31" spans="4:4">
+      <c r="D31" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="30" spans="5:5">
-      <c r="E30" t="s">
+    <row r="32" spans="4:4">
+      <c r="D32" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="31" spans="5:5">
-      <c r="E31" t="s">
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="5:5">
-      <c r="E32" t="s">
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="33" spans="5:5">
-      <c r="E33" t="s">
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="34" spans="5:5">
-      <c r="E34" t="s">
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="35" spans="5:5">
-      <c r="E35" t="s">
+    <row r="37" spans="4:4">
+      <c r="D37" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="36" spans="5:5">
-      <c r="E36" t="s">
+    <row r="38" spans="4:4">
+      <c r="D38" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="37" spans="5:5">
-      <c r="E37" t="s">
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="38" spans="5:5">
-      <c r="E38" t="s">
+    <row r="40" spans="4:4">
+      <c r="D40" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="39" spans="5:5">
-      <c r="E39" t="s">
+    <row r="41" spans="4:4">
+      <c r="D41" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="40" spans="5:5">
-      <c r="E40" t="s">
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="41" spans="5:5">
-      <c r="E41" t="s">
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="42" spans="5:5">
-      <c r="E42" t="s">
+    <row r="44" spans="4:4">
+      <c r="D44" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="43" spans="5:5">
-      <c r="E43" t="s">
+    <row r="45" spans="4:4">
+      <c r="D45" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="44" spans="5:5">
-      <c r="E44" t="s">
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="45" spans="5:5">
-      <c r="E45" t="s">
+    <row r="47" spans="4:4">
+      <c r="D47" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="46" spans="5:5">
-      <c r="E46" t="s">
+    <row r="48" spans="4:4">
+      <c r="D48" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="47" spans="5:5">
-      <c r="E47" t="s">
+    <row r="49" spans="4:4">
+      <c r="D49" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="48" spans="5:5">
-      <c r="E48" t="s">
+    <row r="50" spans="4:4">
+      <c r="D50" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="49" spans="5:5">
-      <c r="E49" t="s">
+    <row r="51" spans="4:4">
+      <c r="D51" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="50" spans="5:5">
-      <c r="E50" t="s">
+    <row r="52" spans="4:4">
+      <c r="D52" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="51" spans="5:5">
-      <c r="E51" t="s">
+    <row r="53" spans="4:4">
+      <c r="D53" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="52" spans="5:5">
-      <c r="E52" t="s">
+    <row r="54" spans="4:4">
+      <c r="D54" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="53" spans="5:5">
-      <c r="E53" t="s">
+    <row r="55" spans="4:4">
+      <c r="D55" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="54" spans="5:5">
-      <c r="E54" t="s">
+    <row r="56" spans="4:4">
+      <c r="D56" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="55" spans="5:5">
-      <c r="E55" t="s">
+    <row r="57" spans="4:4">
+      <c r="D57" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="56" spans="5:5">
-      <c r="E56" t="s">
+    <row r="58" spans="4:4">
+      <c r="D58" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="57" spans="5:5">
-      <c r="E57" t="s">
+    <row r="59" spans="4:4">
+      <c r="D59" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="58" spans="5:5">
-      <c r="E58" t="s">
+    <row r="60" spans="4:4">
+      <c r="D60" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="5:5">
-      <c r="E59" t="s">
+    <row r="61" spans="4:4">
+      <c r="D61" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="60" spans="5:5">
-      <c r="E60" t="s">
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="61" spans="5:5">
-      <c r="E61" t="s">
+    <row r="63" spans="4:4">
+      <c r="D63" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="62" spans="5:5">
-      <c r="E62" t="s">
+    <row r="64" spans="4:4">
+      <c r="D64" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="63" spans="5:5">
-      <c r="E63" t="s">
+    <row r="65" spans="4:4">
+      <c r="D65" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="64" spans="5:5">
-      <c r="E64" t="s">
+    <row r="66" spans="4:4">
+      <c r="D66" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="65" spans="5:5">
-      <c r="E65" t="s">
+    <row r="67" spans="4:4">
+      <c r="D67" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="66" spans="5:5">
-      <c r="E66" t="s">
+    <row r="68" spans="4:4">
+      <c r="D68" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="67" spans="5:5">
-      <c r="E67" t="s">
+    <row r="69" spans="4:4">
+      <c r="D69" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="68" spans="5:5">
-      <c r="E68" t="s">
+    <row r="70" spans="4:4">
+      <c r="D70" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="69" spans="5:5">
-      <c r="E69" t="s">
+    <row r="71" spans="4:4">
+      <c r="D71" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="70" spans="5:5">
-      <c r="E70" t="s">
+    <row r="72" spans="4:4">
+      <c r="D72" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="71" spans="5:5">
-      <c r="E71" t="s">
+    <row r="73" spans="4:4">
+      <c r="D73" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="72" spans="5:5">
-      <c r="E72" t="s">
+    <row r="74" spans="4:4">
+      <c r="D74" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="73" spans="5:5">
-      <c r="E73" t="s">
+    <row r="75" spans="4:4">
+      <c r="D75" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="74" spans="5:5">
-      <c r="E74" t="s">
+    <row r="76" spans="4:4">
+      <c r="D76" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="75" spans="5:5">
-      <c r="E75" t="s">
+    <row r="77" spans="4:4">
+      <c r="D77" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="76" spans="5:5">
-      <c r="E76" t="s">
+    <row r="78" spans="4:4">
+      <c r="D78" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="77" spans="5:5">
-      <c r="E77" t="s">
+    <row r="79" spans="4:4">
+      <c r="D79" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="78" spans="5:5">
-      <c r="E78" t="s">
+    <row r="80" spans="4:4">
+      <c r="D80" t="s">
         <v>431</v>
-      </c>
-    </row>
-    <row r="79" spans="5:5">
-      <c r="E79" t="s">
-        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -2883,7 +2885,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C35C" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AC63" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -2898,88 +2900,88 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BW4"/>
+  <dimension ref="A1:BV4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="54.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="42" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="93.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="183.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="57" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="97.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="64.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="99.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="77.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="57.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="64.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="143.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="79" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="105" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="62.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="70.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="102.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="102.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="91.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="61.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="60.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="67.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="25.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="121.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="115.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="43.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="52.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="64.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="77.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="63.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="161.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="60.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="61.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="48.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="77.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="151.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="83.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="101.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="110.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="46.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="62.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="59.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="68.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="124.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="104" style="4" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="41.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="32.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="129.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="252.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="54.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="77.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="77.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="242.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="40" style="4" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="244.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="167" style="4" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="95.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="86.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="88.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="93.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="183.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="97.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="64.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="99.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="77.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="57.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="64.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="143.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="79" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="105" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="62.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="70.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="102.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="102.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="91.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="61.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="60.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="67.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="25.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="41.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="121.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="115.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="43.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="52.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="64.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="77.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="63.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="161.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="60.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="61.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="48.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="76.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="77.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="151.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="83.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="101.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="110.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="46.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="62.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="59.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="68.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="124.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="104" style="4" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="41.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="32.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="129.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="252.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="54.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="77.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="77.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="242.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="40" style="4" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="244.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="167" style="4" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="95.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="28.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="86.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="88.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="59.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="255.7109375" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75">
+    <row r="1" spans="1:74">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -2987,234 +2989,231 @@
         <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="BV1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:74">
+      <c r="A2" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="2" spans="1:75">
-      <c r="A2" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>216</v>
@@ -3361,7 +3360,7 @@
         <v>310</v>
       </c>
       <c r="AZ2" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="BA2" s="5" t="s">
         <v>313</v>
@@ -3391,7 +3390,7 @@
         <v>329</v>
       </c>
       <c r="BJ2" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BK2" s="5" t="s">
         <v>332</v>
@@ -3429,19 +3428,16 @@
       <c r="BV2" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="BW2" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:75">
+    </row>
+    <row r="3" spans="1:74">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>217</v>
@@ -3585,10 +3581,10 @@
         <v>309</v>
       </c>
       <c r="AY3" s="5" t="s">
-        <v>311</v>
+        <v>253</v>
       </c>
       <c r="AZ3" s="5" t="s">
-        <v>255</v>
+        <v>312</v>
       </c>
       <c r="BA3" s="5" t="s">
         <v>314</v>
@@ -3615,10 +3611,10 @@
         <v>328</v>
       </c>
       <c r="BI3" s="5" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BJ3" s="5" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="BK3" s="5" t="s">
         <v>333</v>
@@ -3656,11 +3652,8 @@
       <c r="BV3" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="BW3" s="5" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="4" spans="1:75">
+    </row>
+    <row r="4" spans="1:74">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
@@ -3737,29 +3730,28 @@
       <c r="BT4" s="6"/>
       <c r="BU4" s="6"/>
       <c r="BV4" s="6"/>
-      <c r="BW4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="97A4" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="FE1B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:BW4"/>
+    <mergeCell ref="A4:BV4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:BW4">
+  <conditionalFormatting sqref="A1:BV4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
+      <formula1>HiddenDropdowns!$D$5:$D$80</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
-      <formula1>HiddenDropdowns!$E$5:$E$79</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
       <formula1>"Air Dried,Dry Ice,Ethanol/Dry Ice Slurry,Lyophilised,Not Applicable,Not Collected,Not Provided,Other,Rnalater,Snap Frozen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="V5:V1005">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="U5:U1005">
       <formula1>"Deaccessioned,Destroyed,In Collection,Missing,On Loan,Used Up"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="AU5:AU1005">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="AT5:AT1005">
       <formula1>"Fruit-Bearing,In Bloom,Non-Reproductive,Pregnant"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3807,76 +3799,76 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>467</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -3884,76 +3876,76 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="X2" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="Y2" s="5" t="s">
         <v>513</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="3" spans="1:25">
@@ -3961,76 +3953,76 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="4" spans="1:25">
@@ -4063,7 +4055,7 @@
       <c r="Y4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BEDE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="948F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Y4"/>
   </mergeCells>
@@ -4127,43 +4119,43 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>519</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>532</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>526</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4171,43 +4163,43 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="L2" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>554</v>
-      </c>
       <c r="M2" s="5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4215,43 +4207,43 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4273,7 +4265,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A562" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="BDB7" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4326,40 +4318,40 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>516</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>567</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>569</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -4367,40 +4359,40 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>573</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -4408,40 +4400,40 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -4462,7 +4454,7 @@
       <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E1B0" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B4F5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:M4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
@@ -2231,7 +2231,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="DC39" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B304" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2334,7 +2334,7 @@
       <c r="G4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="80F2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8651" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:G4"/>
   </mergeCells>
@@ -2885,7 +2885,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AC63" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CD03" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3732,7 +3732,7 @@
       <c r="BV4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="FE1B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ACA1" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:BV4"/>
   </mergeCells>
@@ -4055,7 +4055,7 @@
       <c r="Y4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="948F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8972" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Y4"/>
   </mergeCells>
@@ -4265,7 +4265,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="BDB7" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C940" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4454,7 +4454,7 @@
       <c r="M4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B4F5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B454" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:M4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="714">
   <si>
     <t>key</t>
   </si>
@@ -110,7 +110,7 @@
     <t>The workflow or protocol followed during the study.</t>
   </si>
   <si>
-    <t>e.g. spatial_transcriptomics</t>
+    <t>e.g. Laser microdissection</t>
   </si>
   <si>
     <t>The sorting or visualisation technology used.</t>
@@ -1106,6 +1106,9 @@
     <t>Bodywall</t>
   </si>
   <si>
+    <t>Bone Marrow Hematopoietic Niches</t>
+  </si>
+  <si>
     <t>Bract</t>
   </si>
   <si>
@@ -1121,6 +1124,18 @@
     <t>Cephalothorax</t>
   </si>
   <si>
+    <t>Cortex Development In Roots</t>
+  </si>
+  <si>
+    <t>Developing Brain</t>
+  </si>
+  <si>
+    <t>Developing Embryo</t>
+  </si>
+  <si>
+    <t>Developing Seed Coat</t>
+  </si>
+  <si>
     <t>Dna Extract</t>
   </si>
   <si>
@@ -1130,6 +1145,9 @@
     <t>Eggshell</t>
   </si>
   <si>
+    <t>Embryonic Stem Cells</t>
+  </si>
+  <si>
     <t>Endocrine Tissue</t>
   </si>
   <si>
@@ -1142,12 +1160,30 @@
     <t>Fat Body</t>
   </si>
   <si>
+    <t>Fetal Heart</t>
+  </si>
+  <si>
+    <t>Fetal Kidney</t>
+  </si>
+  <si>
+    <t>Fetal Liver</t>
+  </si>
+  <si>
+    <t>Fetal Lung</t>
+  </si>
+  <si>
     <t>Fin</t>
   </si>
   <si>
+    <t>Floral Meristem</t>
+  </si>
+  <si>
     <t>Flower</t>
   </si>
   <si>
+    <t>Gastrulation-Stage Embryo</t>
+  </si>
+  <si>
     <t>Gill Animal</t>
   </si>
   <si>
@@ -1157,6 +1193,9 @@
     <t>Gonad</t>
   </si>
   <si>
+    <t>Gut</t>
+  </si>
+  <si>
     <t>Hair</t>
   </si>
   <si>
@@ -1172,6 +1211,9 @@
     <t>Holdfast Fungi</t>
   </si>
   <si>
+    <t>Hypocotyl</t>
+  </si>
+  <si>
     <t>Inflorescence</t>
   </si>
   <si>
@@ -1184,9 +1226,15 @@
     <t>Leaf</t>
   </si>
   <si>
+    <t>Leaf Primordia</t>
+  </si>
+  <si>
     <t>Leg</t>
   </si>
   <si>
+    <t>Limb Bud</t>
+  </si>
+  <si>
     <t>Liver</t>
   </si>
   <si>
@@ -1214,6 +1262,15 @@
     <t>Mycorrhiza</t>
   </si>
   <si>
+    <t>Neonatal Retina</t>
+  </si>
+  <si>
+    <t>Neural Crest Cells</t>
+  </si>
+  <si>
+    <t>Nodules</t>
+  </si>
+  <si>
     <t>Not Applicable</t>
   </si>
   <si>
@@ -1223,6 +1280,9 @@
     <t>Not Provided</t>
   </si>
   <si>
+    <t>Olfactory Epithelium</t>
+  </si>
+  <si>
     <t>Other Fungal Tissue</t>
   </si>
   <si>
@@ -1241,18 +1301,36 @@
     <t>Oviduct</t>
   </si>
   <si>
+    <t>Ovule Primordium</t>
+  </si>
+  <si>
     <t>Pancreas</t>
   </si>
   <si>
     <t>Petiole</t>
   </si>
   <si>
+    <t>Placental Trophoblast Cells</t>
+  </si>
+  <si>
+    <t>Pollen Mother Cells</t>
+  </si>
+  <si>
     <t>Posterior Body</t>
   </si>
   <si>
+    <t>Postnatal Thymus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhizome Meristem </t>
+  </si>
+  <si>
     <t>Root</t>
   </si>
   <si>
+    <t>Root Apical Meristem</t>
+  </si>
+  <si>
     <t>Scales</t>
   </si>
   <si>
@@ -1268,9 +1346,15 @@
     <t>Shoot</t>
   </si>
   <si>
+    <t>Shoot Apical Meristem</t>
+  </si>
+  <si>
     <t>Skin</t>
   </si>
   <si>
+    <t>Somitic Mesoderm</t>
+  </si>
+  <si>
     <t>Sperm Seminal Fluid</t>
   </si>
   <si>
@@ -1310,9 +1394,15 @@
     <t>Thorax</t>
   </si>
   <si>
+    <t>Trichome Precursor Cells</t>
+  </si>
+  <si>
     <t>Unicellular Organisms In Culture</t>
   </si>
   <si>
+    <t>Vascular Cambium</t>
+  </si>
+  <si>
     <t>Whole Organism</t>
   </si>
   <si>
@@ -1388,6 +1478,9 @@
     <t>cell_phenotype</t>
   </si>
   <si>
+    <t>design_description</t>
+  </si>
+  <si>
     <t>amplification_method (optional)</t>
   </si>
   <si>
@@ -1427,6 +1520,9 @@
     <t>cell_phenotype (optional)</t>
   </si>
   <si>
+    <t>design_description (optional)</t>
+  </si>
+  <si>
     <t>A unique alphanumeric reference or identifier for the library preparation protocol used during the sequencing.</t>
   </si>
   <si>
@@ -1568,6 +1664,12 @@
     <t>e.g. CD41-</t>
   </si>
   <si>
+    <t>The design of the library including details of how it was constructed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g. </t>
+  </si>
+  <si>
     <t>sequencing_id</t>
   </si>
   <si>
@@ -1700,6 +1802,255 @@
     <t>e.g. 75</t>
   </si>
   <si>
+    <t>454 Gs</t>
+  </si>
+  <si>
+    <t>454 Gs 20</t>
+  </si>
+  <si>
+    <t>454 Gs Flx</t>
+  </si>
+  <si>
+    <t>454 Gs Flx Titanium</t>
+  </si>
+  <si>
+    <t>454 Gs Flx+</t>
+  </si>
+  <si>
+    <t>454 Gs Junior</t>
+  </si>
+  <si>
+    <t>Ab 310 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3130 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3130Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3500 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3500Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3730 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 3730Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 5500 Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 5500Xl Genetic Analyzer</t>
+  </si>
+  <si>
+    <t>Ab 5500Xl-W Genetic Analysis System</t>
+  </si>
+  <si>
+    <t>Ab Solid 3 Plus System</t>
+  </si>
+  <si>
+    <t>Ab Solid 4 System</t>
+  </si>
+  <si>
+    <t>Ab Solid 4Hq System</t>
+  </si>
+  <si>
+    <t>Ab Solid Pi System</t>
+  </si>
+  <si>
+    <t>Ab Solid System</t>
+  </si>
+  <si>
+    <t>Ab Solid System 2.0</t>
+  </si>
+  <si>
+    <t>Ab Solid System 3.0</t>
+  </si>
+  <si>
+    <t>Bgiseq-50</t>
+  </si>
+  <si>
+    <t>Bgiseq-500</t>
+  </si>
+  <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>Dnbseq-G400</t>
+  </si>
+  <si>
+    <t>Dnbseq-G400 Fast</t>
+  </si>
+  <si>
+    <t>Dnbseq-G50</t>
+  </si>
+  <si>
+    <t>Dnbseq-T10X4Rs</t>
+  </si>
+  <si>
+    <t>Dnbseq-T7</t>
+  </si>
+  <si>
+    <t>Element Aviti</t>
+  </si>
+  <si>
+    <t>Fastaseq 300</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>Genius</t>
+  </si>
+  <si>
+    <t>Genocare 1600</t>
+  </si>
+  <si>
+    <t>Genolab M</t>
+  </si>
+  <si>
+    <t>Gridion</t>
+  </si>
+  <si>
+    <t>Gs111</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer Ii</t>
+  </si>
+  <si>
+    <t>Illumina Genome Analyzer Iix</t>
+  </si>
+  <si>
+    <t>Illumina Hiscansq</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 1000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 1500</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 2000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 2500</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 3000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq 4000</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq X</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq X Five</t>
+  </si>
+  <si>
+    <t>Illumina Hiseq X Ten</t>
+  </si>
+  <si>
+    <t>Illumina Iseq 100</t>
+  </si>
+  <si>
+    <t>Illumina Miniseq</t>
+  </si>
+  <si>
+    <t>Illumina Miseq</t>
+  </si>
+  <si>
+    <t>Illumina Nextseq 500</t>
+  </si>
+  <si>
+    <t>Illumina Nextseq 550</t>
+  </si>
+  <si>
+    <t>Illumina Novaseq 6000</t>
+  </si>
+  <si>
+    <t>Illumina Novaseq X</t>
+  </si>
+  <si>
+    <t>Illumina Novaseq X Plus</t>
+  </si>
+  <si>
+    <t>Ion Genestudio S5</t>
+  </si>
+  <si>
+    <t>Ion Genestudio S5 Plus</t>
+  </si>
+  <si>
+    <t>Ion Genestudio S5 Prime</t>
+  </si>
+  <si>
+    <t>Ion Torrent Genexus</t>
+  </si>
+  <si>
+    <t>Ion Torrent Pgm</t>
+  </si>
+  <si>
+    <t>Ion Torrent Proton</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5</t>
+  </si>
+  <si>
+    <t>Ion Torrent S5 Xl</t>
+  </si>
+  <si>
+    <t>Mgiseq-2000Rs</t>
+  </si>
+  <si>
+    <t>Minion</t>
+  </si>
+  <si>
+    <t>Nextseq 1000</t>
+  </si>
+  <si>
+    <t>Nextseq 2000</t>
+  </si>
+  <si>
+    <t>Onso</t>
+  </si>
+  <si>
+    <t>Pacbio Rs</t>
+  </si>
+  <si>
+    <t>Pacbio Rs Ii</t>
+  </si>
+  <si>
+    <t>Promethion</t>
+  </si>
+  <si>
+    <t>Revio</t>
+  </si>
+  <si>
+    <t>Sentosa Sq301</t>
+  </si>
+  <si>
+    <t>Sequel</t>
+  </si>
+  <si>
+    <t>Sequel Ii</t>
+  </si>
+  <si>
+    <t>Sequel Iie</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
+  </si>
+  <si>
+    <t>Ug 100</t>
+  </si>
+  <si>
     <t>lib_prep_id</t>
   </si>
   <si>
@@ -1718,10 +2069,16 @@
     <t>index_2_file</t>
   </si>
   <si>
-    <t>read_checksum</t>
-  </si>
-  <si>
-    <t>index_checksum</t>
+    <t>read_1_checksum</t>
+  </si>
+  <si>
+    <t>read_2_checksum</t>
+  </si>
+  <si>
+    <t>index_1_checksum</t>
+  </si>
+  <si>
+    <t>index_2_checksum</t>
   </si>
   <si>
     <t>white_list_barcode_file</t>
@@ -1733,6 +2090,18 @@
     <t>file_type</t>
   </si>
   <si>
+    <t>read_2_file (optional)</t>
+  </si>
+  <si>
+    <t>index_1_file (optional)</t>
+  </si>
+  <si>
+    <t>read_2_checksum (optional)</t>
+  </si>
+  <si>
+    <t>index_2_checksum (optional)</t>
+  </si>
+  <si>
     <t>white_list_barcode_file (optional)</t>
   </si>
   <si>
@@ -1763,16 +2132,19 @@
     <t>e.g. file2_i2.fastq.gz</t>
   </si>
   <si>
-    <t>Result of a hash function calculated on the content of both the read 1 file and the read 2 file to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
-  </si>
-  <si>
-    <t>e.g. d41d8cd98f00b204e9800998ecf8427e,5a105e8b9d40e1329780d62ea2265d8a77a1a45e</t>
-  </si>
-  <si>
-    <t>Result of a hash function calculated on the content of both the index 1 file and the index 2 file to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
-  </si>
-  <si>
-    <t>e.g. d3486ae9136e7856bc42212385ea797094475802,b7e23ec29af22b0b4e41da31e868d57226121c84</t>
+    <t>Result of a hash function calculated on the content of the read 1 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>e.g. d41d8cd98f00b204e9800998ecf8427e</t>
+  </si>
+  <si>
+    <t>Result of a hash function calculated on the content of the read 2 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>Result of a hash function calculated on the content of  the index 1 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
+  </si>
+  <si>
+    <t>Result of a hash function calculated on the content of  the index 2 file  to verify file integrity. Commonly used algorithms include MD5 and SHA-1. The checksums should be separated by a comma (,).</t>
   </si>
   <si>
     <t>A file containing the known cell barcodes in the
@@ -2231,7 +2603,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="B304" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9D79" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2334,7 +2706,7 @@
       <c r="G4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8651" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F2C9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:G4"/>
   </mergeCells>
@@ -2343,12 +2715,9 @@
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="F5:F1005">
       <formula1>HiddenDropdowns!$F$5:$F$12</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="G5:G1005">
-      <formula1>"10X,10X 3',Mas Seq,Smartseq,Vizgen"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2357,19 +2726,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="D5:F80"/>
+  <dimension ref="D5:F110"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="40.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="4:6">
       <c r="D5" t="s">
-        <v>356</v>
+        <v>593</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
@@ -2377,7 +2746,7 @@
     </row>
     <row r="6" spans="4:6">
       <c r="D6" t="s">
-        <v>357</v>
+        <v>594</v>
       </c>
       <c r="F6" t="s">
         <v>34</v>
@@ -2385,7 +2754,7 @@
     </row>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
-        <v>358</v>
+        <v>595</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -2393,7 +2762,7 @@
     </row>
     <row r="8" spans="4:6">
       <c r="D8" t="s">
-        <v>359</v>
+        <v>596</v>
       </c>
       <c r="F8" t="s">
         <v>36</v>
@@ -2401,7 +2770,7 @@
     </row>
     <row r="9" spans="4:6">
       <c r="D9" t="s">
-        <v>360</v>
+        <v>597</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -2409,7 +2778,7 @@
     </row>
     <row r="10" spans="4:6">
       <c r="D10" t="s">
-        <v>361</v>
+        <v>598</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
@@ -2417,7 +2786,7 @@
     </row>
     <row r="11" spans="4:6">
       <c r="D11" t="s">
-        <v>362</v>
+        <v>599</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
@@ -2425,7 +2794,7 @@
     </row>
     <row r="12" spans="4:6">
       <c r="D12" t="s">
-        <v>363</v>
+        <v>600</v>
       </c>
       <c r="F12" t="s">
         <v>40</v>
@@ -2433,342 +2802,492 @@
     </row>
     <row r="13" spans="4:6">
       <c r="D13" t="s">
-        <v>364</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="4:6">
       <c r="D14" t="s">
-        <v>365</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="4:6">
       <c r="D15" t="s">
-        <v>366</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="4:6">
       <c r="D16" t="s">
-        <v>367</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>368</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>369</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>370</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>371</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>372</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>373</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>374</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>375</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" t="s">
-        <v>376</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" t="s">
-        <v>377</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>378</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" t="s">
-        <v>379</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" t="s">
-        <v>380</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" t="s">
-        <v>381</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" t="s">
-        <v>382</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" t="s">
-        <v>383</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" t="s">
-        <v>384</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" t="s">
-        <v>385</v>
+        <v>622</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" t="s">
-        <v>386</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="4:4">
       <c r="D36" t="s">
-        <v>387</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>388</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>389</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>390</v>
+        <v>627</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" t="s">
-        <v>391</v>
+        <v>628</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" t="s">
-        <v>392</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>393</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" t="s">
-        <v>394</v>
+        <v>631</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" t="s">
-        <v>395</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" t="s">
-        <v>396</v>
+        <v>633</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>397</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>398</v>
+        <v>635</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>399</v>
+        <v>636</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>400</v>
+        <v>637</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" t="s">
-        <v>401</v>
+        <v>638</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" t="s">
-        <v>402</v>
+        <v>639</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>403</v>
+        <v>640</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>404</v>
+        <v>641</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>405</v>
+        <v>642</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>406</v>
+        <v>643</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" t="s">
-        <v>407</v>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>408</v>
+        <v>645</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>409</v>
+        <v>646</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>410</v>
+        <v>647</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" t="s">
-        <v>411</v>
+        <v>648</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" t="s">
-        <v>412</v>
+        <v>649</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>413</v>
+        <v>650</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" t="s">
-        <v>414</v>
+        <v>651</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" t="s">
-        <v>415</v>
+        <v>652</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" t="s">
-        <v>416</v>
+        <v>653</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>417</v>
+        <v>654</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" t="s">
-        <v>418</v>
+        <v>655</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>419</v>
+        <v>656</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>420</v>
+        <v>657</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>421</v>
+        <v>658</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" t="s">
-        <v>422</v>
+        <v>659</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" t="s">
-        <v>423</v>
+        <v>660</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" t="s">
-        <v>424</v>
+        <v>661</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" t="s">
-        <v>425</v>
+        <v>662</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>426</v>
+        <v>663</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" t="s">
-        <v>427</v>
+        <v>664</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" t="s">
-        <v>428</v>
+        <v>665</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>429</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>430</v>
+        <v>667</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>431</v>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="81" spans="4:4">
+      <c r="D81" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4">
+      <c r="D82" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="83" spans="4:4">
+      <c r="D83" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="84" spans="4:4">
+      <c r="D84" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="85" spans="4:4">
+      <c r="D85" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="86" spans="4:4">
+      <c r="D86" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="87" spans="4:4">
+      <c r="D87" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="88" spans="4:4">
+      <c r="D88" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="89" spans="4:4">
+      <c r="D89" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="90" spans="4:4">
+      <c r="D90" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="91" spans="4:4">
+      <c r="D91" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="92" spans="4:4">
+      <c r="D92" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="93" spans="4:4">
+      <c r="D93" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="94" spans="4:4">
+      <c r="D94" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="95" spans="4:4">
+      <c r="D95" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="96" spans="4:4">
+      <c r="D96" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="97" spans="4:4">
+      <c r="D97" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="98" spans="4:4">
+      <c r="D98" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="99" spans="4:4">
+      <c r="D99" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="100" spans="4:4">
+      <c r="D100" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="101" spans="4:4">
+      <c r="D101" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="102" spans="4:4">
+      <c r="D102" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="103" spans="4:4">
+      <c r="D103" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="104" spans="4:4">
+      <c r="D104" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="105" spans="4:4">
+      <c r="D105" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="107" spans="4:4">
+      <c r="D107" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="108" spans="4:4">
+      <c r="D108" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="109" spans="4:4">
+      <c r="D109" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="110" spans="4:4">
+      <c r="D110" t="s">
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -2885,7 +3404,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="CD03" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A423" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -3732,7 +4251,7 @@
       <c r="BV4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="ACA1" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AFA5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:BV4"/>
   </mergeCells>
@@ -3743,7 +4262,7 @@
   </conditionalFormatting>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
-      <formula1>HiddenDropdowns!$D$5:$D$80</formula1>
+      <formula1>HiddenDropdowns!$D$5:$D$110</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
       <formula1>"Air Dried,Dry Ice,Ethanol/Dry Ice Slurry,Lyophilised,Not Applicable,Not Collected,Not Provided,Other,Rnalater,Snap Frozen"</formula1>
@@ -3761,7 +4280,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3792,240 +4311,250 @@
     <col min="23" max="23" width="61.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="64.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="66.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="61" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
+        <v>498</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>470</v>
+        <v>502</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>472</v>
+        <v>504</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>474</v>
+        <v>506</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>476</v>
+        <v>508</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>478</v>
+        <v>510</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>480</v>
+        <v>512</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>482</v>
+        <v>514</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>484</v>
+        <v>516</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>486</v>
+        <v>518</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>490</v>
+        <v>522</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>492</v>
+        <v>524</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>494</v>
+        <v>526</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>496</v>
+        <v>528</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>504</v>
+        <v>536</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
+        <v>545</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>471</v>
+        <v>503</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>477</v>
+        <v>509</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>479</v>
+        <v>511</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>481</v>
+        <v>513</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>483</v>
+        <v>515</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>485</v>
+        <v>517</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>487</v>
+        <v>519</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>491</v>
+        <v>523</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>493</v>
+        <v>525</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>495</v>
+        <v>527</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>503</v>
+        <v>535</v>
       </c>
       <c r="T3" s="5" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="X3" s="5" t="s">
         <v>305</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
+        <v>546</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
@@ -4053,13 +4582,14 @@
       <c r="W4" s="6"/>
       <c r="X4" s="6"/>
       <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8972" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B58B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:Y4"/>
+    <mergeCell ref="A4:Z4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:Y4">
+  <conditionalFormatting sqref="A1:Z4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
@@ -4119,43 +4649,43 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -4163,43 +4693,43 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -4207,43 +4737,43 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>543</v>
+        <v>577</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -4265,7 +4795,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C940" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F4CC" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4274,7 +4804,10 @@
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="D5:D1005">
+      <formula1>HiddenDropdowns!$D$5:$D$87</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose from the list" sqref="E5:E1005">
       <formula1>"Other,Paired,Single,Vector"</formula1>
     </dataValidation>
@@ -4294,7 +4827,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4306,137 +4839,155 @@
     <col min="4" max="4" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="193.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="195.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="172.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="174.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="80.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="95.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>559</v>
+        <v>676</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>560</v>
+        <v>677</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>563</v>
+        <v>678</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>690</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>564</v>
+        <v>681</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>570</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>682</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>571</v>
+        <v>694</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>572</v>
+        <v>695</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>574</v>
+        <v>697</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>576</v>
+        <v>699</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>578</v>
+        <v>701</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>580</v>
+        <v>703</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>582</v>
+        <v>705</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>584</v>
+        <v>706</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>586</v>
+        <v>707</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>708</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>469</v>
+        <v>501</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>573</v>
+        <v>696</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>575</v>
+        <v>698</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>577</v>
+        <v>700</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>579</v>
+        <v>702</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>581</v>
+        <v>704</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>583</v>
+        <v>704</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>585</v>
+        <v>704</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>587</v>
+        <v>704</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>709</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
         <v>32</v>
       </c>
@@ -4452,13 +5003,15 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B454" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="92E2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
-    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="A4:O4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:M4">
+  <conditionalFormatting sqref="A1:O4">
     <cfRule type="notContainsErrors" dxfId="0" priority="1">
       <formula>NOT(ISERROR(A1))</formula>
     </cfRule>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
@@ -2603,7 +2603,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="9D79" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="CC67" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2706,7 +2706,7 @@
       <c r="G4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F2C9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8BD9" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:G4"/>
   </mergeCells>
@@ -3404,7 +3404,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A423" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D37B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4251,7 +4251,7 @@
       <c r="BV4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AFA5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8B5F" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:BV4"/>
   </mergeCells>
@@ -4585,7 +4585,7 @@
       <c r="Z4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="B58B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8275" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Z4"/>
   </mergeCells>
@@ -4795,7 +4795,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F4CC" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C4D2" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -5007,7 +5007,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="92E2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8366" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
@@ -65,7 +65,7 @@
     <t>title</t>
   </si>
   <si>
-    <t>bibliographicCitation</t>
+    <t>d</t>
   </si>
   <si>
     <t>created</t>
@@ -2069,16 +2069,16 @@
     <t>index_2_file</t>
   </si>
   <si>
-    <t>read_1_checksum</t>
-  </si>
-  <si>
-    <t>read_2_checksum</t>
-  </si>
-  <si>
-    <t>index_1_checksum</t>
-  </si>
-  <si>
-    <t>index_2_checksum</t>
+    <t>read_1_file_checksum</t>
+  </si>
+  <si>
+    <t>read_2_file_checksum</t>
+  </si>
+  <si>
+    <t>index_1_file_checksum</t>
+  </si>
+  <si>
+    <t>index_2_file_checksum</t>
   </si>
   <si>
     <t>white_list_barcode_file</t>
@@ -2096,10 +2096,10 @@
     <t>index_1_file (optional)</t>
   </si>
   <si>
-    <t>read_2_checksum (optional)</t>
-  </si>
-  <si>
-    <t>index_2_checksum (optional)</t>
+    <t>read_2_file_checksum (optional)</t>
+  </si>
+  <si>
+    <t>index_2_file_checksum (optional)</t>
   </si>
   <si>
     <t>white_list_barcode_file (optional)</t>
@@ -2120,13 +2120,13 @@
     <t>e.g. file2_r2.fastq.gz</t>
   </si>
   <si>
-    <t>The name or accession of the file that contains index 1.</t>
+    <t>The name of the file that contains index 1.</t>
   </si>
   <si>
     <t>e.g. file1_i1.fastq.gz</t>
   </si>
   <si>
-    <t>The name or accession of the file that contains index 2.</t>
+    <t>The name of the file that contains index 2.</t>
   </si>
   <si>
     <t>e.g. file2_i2.fastq.gz</t>
@@ -2603,7 +2603,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC67" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C3C2" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2706,7 +2706,7 @@
       <c r="G4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8BD9" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9007" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:G4"/>
   </mergeCells>
@@ -3404,7 +3404,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="D37B" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F480" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4251,7 +4251,7 @@
       <c r="BV4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8B5F" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="E339" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:BV4"/>
   </mergeCells>
@@ -4585,7 +4585,7 @@
       <c r="Z4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8275" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="AAA5" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Z4"/>
   </mergeCells>
@@ -4795,7 +4795,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C4D2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="A863" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4838,7 +4838,7 @@
     <col min="3" max="3" width="67.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="48.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="49.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="38.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="172.85546875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="174.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="42.85546875" style="4" bestFit="1" customWidth="1"/>
@@ -5007,7 +5007,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="8366" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="C75D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>

--- a/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
+++ b/dist/checklists/xlsx/dwc/stx_seq_dwc_v0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="713">
   <si>
     <t>key</t>
   </si>
@@ -2049,9 +2049,6 @@
   </si>
   <si>
     <t>Ug 100</t>
-  </si>
-  <si>
-    <t>lib_prep_id</t>
   </si>
   <si>
     <t>file_id</t>
@@ -2603,7 +2600,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="C3C2" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8DB2" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2706,7 +2703,7 @@
       <c r="G4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="9007" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8331" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:G4"/>
   </mergeCells>
@@ -3404,7 +3401,7 @@
       <c r="H4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="F480" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="B00B" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:H4"/>
   </mergeCells>
@@ -4251,7 +4248,7 @@
       <c r="BV4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="E339" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="845D" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:BV4"/>
   </mergeCells>
@@ -4585,7 +4582,7 @@
       <c r="Z4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="AAA5" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="F595" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:Z4"/>
   </mergeCells>
@@ -4795,7 +4792,7 @@
       <c r="N4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="A863" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="9779" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:N4"/>
   </mergeCells>
@@ -4851,46 +4848,46 @@
         <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>676</v>
+        <v>462</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>549</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>678</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>682</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>692</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>693</v>
-      </c>
       <c r="N1" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -4904,40 +4901,40 @@
         <v>570</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>695</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>708</v>
-      </c>
       <c r="N2" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4954,37 +4951,37 @@
         <v>19</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5007,7 +5004,7 @@
       <c r="O4" s="6"/>
     </row>
   </sheetData>
-  <sheetProtection password="C75D" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="8955" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="1">
     <mergeCell ref="A4:O4"/>
   </mergeCells>
